--- a/projefinal/car_project/Arac_Verileri_Yeni.xlsx
+++ b/projefinal/car_project/Arac_Verileri_Yeni.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,822 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yil</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fiyat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sehir</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kaza_raporu</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>renk</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yakit_turu</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>vites_turu</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>arac_durumu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>takas_durumu</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cekis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>motor_hacmi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>motor_gucu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.5 dCi Dynamique</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>327000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>360000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gazikent Mh. Şehitkamil, Gaziantep</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10 boyalı</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Füme</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dizel</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1461 cc</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>86 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.0 TCe Evolution</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>15200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1044000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mevlana Mh. Kocasinan, Kayseri</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tamamı orjinal</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mavi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Benzin</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Otomatik</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>999 cc</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>90 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.3 Multijet Active</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>385000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gökevler Mh. Esenyurt, İstanbul</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1 değişen</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Beyaz</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dizel</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1248 cc</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>90 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0 TSi Comfortline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>63077</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1039000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barbaros Hayrettin Paşa Mh. Esenyurt, İstanbul</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tamamı orjinal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Beyaz</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Benzin</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Yarı Otomatik</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Takasa Uygun Değil</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>999 cc</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>95 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.5 Blue DCI Touch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>138000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1029500</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100. Yıl Mh. Bağcılar, İstanbul</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 boyalı</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Füme</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dizel</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Yarı Otomatik</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1461 cc</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>115 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.3 LX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>286000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>240000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yeni Mh. Manyas, Balıkesir</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12 boyalı</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kırmızı</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>LPG &amp; Benzin</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1341 cc</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>86 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.6 CRDI Mode</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>152000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>735850</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100. Yıl Mh. Bağcılar, İstanbul</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 boyalı</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Beyaz</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dizel</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Yarı Otomatik</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1582 cc</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>136 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dacia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.9 TCe Stepway</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>570000</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yeni Mh. Manyas, Balıkesir</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4 boyalı</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kırmızı</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Benzin</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Takasa Uygun Değil</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>898 cc</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>90 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.6 TDCi Trend</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>218000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>454900</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fatih Mh. Sungurlu, Çorum</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2 boyalı</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yeşil (metalik)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dizel</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Düz</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1560 cc</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>110 hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.4 MPI Style Plus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1098001</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Şirinevler Mh. Merkez, Osmaniye</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tamamı orjinal</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bordo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Benzin</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Otomatik</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>İkinci El</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Takasa Uygun</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Önden Çekiş</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1368 cc</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>100 hp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/projefinal/car_project/Arac_Verileri_Yeni.xlsx
+++ b/projefinal/car_project/Arac_Verileri_Yeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,38 +513,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Fiat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.5 dCi Dynamique</t>
+          <t>1.6 Multijet Easy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>327000</v>
+        <v>139000</v>
       </c>
       <c r="E2" t="n">
-        <v>360000</v>
+        <v>865000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gazikent Mh. Şehitkamil, Gaziantep</t>
+          <t>Üniversite Mh. Avcılar, İstanbul</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10 boyalı</t>
+          <t>Tamamı orjinal</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Füme</t>
+          <t>Bej</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Düz</t>
+          <t>Yarı Otomatik</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1461 cc</t>
+          <t>1598 cc</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>86 hp</t>
+          <t>130 hp</t>
         </is>
       </c>
     </row>
@@ -591,43 +591,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.0 TCe Evolution</t>
+          <t>1.5 Blue DCI Touch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15200</v>
+        <v>163000</v>
       </c>
       <c r="E3" t="n">
-        <v>1044000</v>
+        <v>935000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mevlana Mh. Kocasinan, Kayseri</t>
+          <t>İdealtepe Mh. Maltepe, İstanbul</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tamamı orjinal</t>
+          <t>2 boyalı</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mavi</t>
+          <t>Beyaz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Benzin</t>
+          <t>Dizel</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Otomatik</t>
+          <t>Yarı Otomatik</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Takasa Uygun</t>
+          <t>Takasa Uygun Değil</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -647,60 +647,60 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>999 cc</t>
+          <t>1461 cc</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>90 hp</t>
+          <t>115 hp</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fiat</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.3 Multijet Active</t>
+          <t>1.4 TSi Comfortline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="E4" t="n">
-        <v>385000</v>
+        <v>812500</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gökevler Mh. Esenyurt, İstanbul</t>
+          <t>Yeşilyurt Mh. Merkez, Sivas</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1 değişen</t>
+          <t>1 değişen, 2 boyalı</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Beyaz</t>
+          <t>Gri</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Dizel</t>
+          <t>Benzin</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Düz</t>
+          <t>Otomatik</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -720,45 +720,45 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1248 cc</t>
+          <t>1390 cc</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>90 hp</t>
+          <t>122 hp</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0 TSi Comfortline</t>
+          <t>1.2 Joy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63077</v>
+        <v>207000</v>
       </c>
       <c r="E5" t="n">
-        <v>1039000</v>
+        <v>399000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barbaros Hayrettin Paşa Mh. Esenyurt, İstanbul</t>
+          <t>Beşköprü Mh. Serdivan, Sakarya</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tamamı orjinal</t>
+          <t>2 değişen, 2 boyalı</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Benzin</t>
+          <t>LPG &amp; Benzin</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Yarı Otomatik</t>
+          <t>Düz</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -793,50 +793,50 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>999 cc</t>
+          <t>1149 cc</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>95 hp</t>
+          <t>75 hp</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.5 Blue DCI Touch</t>
+          <t>A6 Sedan 2.0 TDI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>138000</v>
+        <v>297000</v>
       </c>
       <c r="E6" t="n">
-        <v>1029500</v>
+        <v>970000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100. Yıl Mh. Bağcılar, İstanbul</t>
+          <t>Beşköprü Mh. Serdivan, Sakarya</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 boyalı</t>
+          <t>Tamamı orjinal</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Füme</t>
+          <t>Siyah</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Yarı Otomatik</t>
+          <t>Otomatik</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Takasa Uygun</t>
+          <t>Takasa Uygun Değil</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -866,377 +866,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1461 cc</t>
+          <t>1968 cc</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>115 hp</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.3 LX</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>286000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>240000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yeni Mh. Manyas, Balıkesir</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>12 boyalı</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Kırmızı</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LPG &amp; Benzin</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Düz</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>İkinci El</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Takasa Uygun</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Önden Çekiş</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1341 cc</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>86 hp</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.6 CRDI Mode</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>152000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>735850</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100. Yıl Mh. Bağcılar, İstanbul</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2 boyalı</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Beyaz</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Dizel</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Yarı Otomatik</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>İkinci El</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Takasa Uygun</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Önden Çekiş</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1582 cc</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>136 hp</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dacia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.9 TCe Stepway</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>135000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>570000</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yeni Mh. Manyas, Balıkesir</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4 boyalı</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Kırmızı</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Benzin</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Düz</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>İkinci El</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Takasa Uygun Değil</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Önden Çekiş</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>898 cc</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>90 hp</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1.6 TDCi Trend</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>218000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>454900</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Fatih Mh. Sungurlu, Çorum</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2 boyalı</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Yeşil (metalik)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Dizel</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Düz</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>İkinci El</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Takasa Uygun</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Önden Çekiş</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1560 cc</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>110 hp</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1.4 MPI Style Plus</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1098001</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Şirinevler Mh. Merkez, Osmaniye</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Tamamı orjinal</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Bordo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Benzin</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Otomatik</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>İkinci El</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Takasa Uygun</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Önden Çekiş</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1368 cc</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>100 hp</t>
+          <t>170 hp</t>
         </is>
       </c>
     </row>
